--- a/data/pilot-codebook.xlsx
+++ b/data/pilot-codebook.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="348">
   <si>
     <t>url_article</t>
   </si>
@@ -1067,6 +1067,9 @@
   </si>
   <si>
     <t>no configural</t>
+  </si>
+  <si>
+    <t>Only sum scores used so we couldn't fit a factor model, also cell sample size is 10. We can only construct groups for gender, no other groups.</t>
   </si>
 </sst>
 </file>
@@ -1451,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="AI75" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AR76" sqref="AR76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5128,8 +5131,14 @@
       <c r="AM76">
         <v>1</v>
       </c>
+      <c r="AN76">
+        <v>0</v>
+      </c>
+      <c r="AP76" t="s">
+        <v>346</v>
+      </c>
       <c r="AR76" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="77" spans="1:44" x14ac:dyDescent="0.25">

--- a/data/pilot-codebook.xlsx
+++ b/data/pilot-codebook.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="348">
   <si>
     <t>url_article</t>
   </si>
@@ -1076,7 +1076,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1096,6 +1096,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1150,10 +1158,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1172,8 +1181,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1454,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI75" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AR76" sqref="AR76"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,7 +1637,7 @@
       <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D2" t="s">
@@ -5449,6 +5460,9 @@
       </c>
       <c r="B81" t="s">
         <v>230</v>
+      </c>
+      <c r="C81" t="s">
+        <v>250</v>
       </c>
       <c r="E81">
         <v>2014</v>
@@ -7739,6 +7753,7 @@
     <hyperlink ref="C116" r:id="rId182" display="http://dx.doi.org/10.1371/journal.pone.0122794"/>
     <hyperlink ref="C117" r:id="rId183"/>
     <hyperlink ref="C118" r:id="rId184"/>
+    <hyperlink ref="C81" r:id="rId185"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/pilot-codebook.xlsx
+++ b/data/pilot-codebook.xlsx
@@ -1465,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="U76" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W89" sqref="W89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5877,12 +5877,18 @@
         <v>0</v>
       </c>
       <c r="V89">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="W89">
         <v>24</v>
       </c>
       <c r="X89">
+        <v>24</v>
+      </c>
+      <c r="Y89">
+        <v>24</v>
+      </c>
+      <c r="Z89">
         <v>24</v>
       </c>
       <c r="AH89">
